--- a/output_scrapping/all_schools_combined.xlsx
+++ b/output_scrapping/all_schools_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ARIZONA_STATE_UNIVERSITY</t>
+          <t>ABILENE_CHRISTIAN_UNIVERSITY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -597,60 +597,72 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119685</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17000</v>
-      </c>
+        <v>4481</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>33179</v>
+        <v>1956</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>152864</v>
+        <v>6437</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>110084</v>
+        <v>4096</v>
       </c>
       <c r="O2" t="n">
-        <v>26581</v>
+        <v>1372</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>136665</v>
+        <v>5468</v>
       </c>
       <c r="R2" t="n">
-        <v>77103</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>11464</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="T2" t="n">
+        <v>785</v>
+      </c>
       <c r="U2" t="n">
-        <v>67381</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+        <v>7608</v>
+      </c>
+      <c r="V2" t="n">
+        <v>562</v>
+      </c>
+      <c r="W2" t="n">
+        <v>405</v>
+      </c>
       <c r="X2" t="n">
-        <v>17141</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+        <v>980</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>342</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>261</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>1024167</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>44200</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13654</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>BRADLEY_UNIVERSITY</t>
+          <t>ADELPHI_UNIVERSITY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -659,60 +671,60 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3596</v>
+        <v>5117</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1181</v>
+        <v>1405</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>6522</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>4235</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>9459</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>792</v>
-      </c>
+        <v>19705</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4209</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>7260</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>331</v>
-      </c>
+        <v>12987</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1908</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>811</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>120</v>
-      </c>
+        <v>1343</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>864</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>1014</v>
+      </c>
       <c r="AC3" t="n">
-        <v>41210</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13500</v>
-      </c>
+        <v>49110</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CALIFORNIA_STATE_UNIVERSITY</t>
+          <t>ALBANY_COLLEGE_OF_PHARMACY_AND_</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -720,53 +732,53 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>555004</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50882</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34122</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>460331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50882</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34122</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>850</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2835</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>1483</v>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>100</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>3393237</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+        <v>40200</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CORNELL_UNIVERSITY</t>
+          <t>ALFRED_UNIVERSITY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -775,68 +787,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27200</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16071</v>
-      </c>
+        <v>1474</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>11603</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11603</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>27674</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27674</v>
-      </c>
+        <v>2045</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>383</v>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>1812</v>
+      </c>
       <c r="R5" t="n">
-        <v>67846</v>
-      </c>
-      <c r="S5" t="n">
-        <v>32245</v>
-      </c>
+        <v>8045</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>5358</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7240</v>
-      </c>
+        <v>3703</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>3537</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3181</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>4600</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>484814</v>
+        <v>40180</v>
       </c>
       <c r="AD5" t="n">
-        <v>16396</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CULINARY_INSTITUTE_OF_AMERICA_T</t>
+          <t>AQUINAS_COLLEGE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -845,54 +847,62 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3257</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>958</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>37</v>
+      </c>
       <c r="K6" t="n">
-        <v>3257</v>
+        <v>1179</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1055</v>
+      </c>
       <c r="R6" t="n">
-        <v>4310</v>
+        <v>2947</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3826</v>
+        <v>1972</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>1461</v>
+        <v>234</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>36900</v>
+        <v>40218</v>
       </c>
       <c r="AD6" t="n">
-        <v>13800</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GANNON_UNIVERSITY</t>
+          <t>ARCADIA_UNIVERSITY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -901,66 +911,84 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2768</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>1890</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1581</v>
+      </c>
+      <c r="E7" t="n">
+        <v>309</v>
+      </c>
       <c r="F7" t="n">
-        <v>1421</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+        <v>1253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>560</v>
+      </c>
+      <c r="H7" t="n">
+        <v>693</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>4189</v>
+        <v>3143</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1684</v>
+      </c>
+      <c r="O7" t="n">
+        <v>791</v>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>3615</v>
+        <v>2475</v>
       </c>
       <c r="R7" t="n">
-        <v>6607</v>
+        <v>6688</v>
       </c>
       <c r="S7" t="n">
-        <v>5314</v>
+        <v>2350</v>
       </c>
       <c r="T7" t="n">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="U7" t="n">
-        <v>4915</v>
+        <v>5296</v>
       </c>
       <c r="V7" t="n">
-        <v>2750</v>
+        <v>886</v>
       </c>
       <c r="W7" t="n">
         <v>230</v>
       </c>
       <c r="X7" t="n">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="Y7" t="n">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="Z7" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>474</v>
+      </c>
       <c r="AC7" t="n">
-        <v>82859</v>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+        <v>47590</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14090</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LEWIS_UNIVERSITY</t>
+          <t>AUGSBURG_UNIVERSITY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -969,70 +997,64 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5135</v>
+        <v>2428</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2685</v>
+        <v>813</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>5433</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2387</v>
-      </c>
+      <c r="K8" t="n">
+        <v>3034</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>6177</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>6713</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6594</v>
-      </c>
+        <v>4118</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>2436</v>
+        <v>718</v>
       </c>
       <c r="U8" t="n">
-        <v>4631</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4934</v>
-      </c>
+        <v>3376</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>1434</v>
+        <v>402</v>
       </c>
       <c r="X8" t="n">
-        <v>796</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>688</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>788</v>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+        <v>224</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>166</v>
+      </c>
       <c r="AC8" t="n">
-        <v>38800</v>
+        <v>43142</v>
       </c>
       <c r="AD8" t="n">
-        <v>12383</v>
+        <v>11905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MICHIGAN_STATE_UNIVERSITY</t>
+          <t>AUGUSTANA_COLLEGE_ASSOCIATION_T</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1041,72 +1063,68 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41234</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38546</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2688</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>10855</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8316</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2539</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>52089</v>
+        <v>2390</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>39442</v>
+        <v>1964</v>
       </c>
       <c r="O9" t="n">
-        <v>9162</v>
+        <v>300</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>62138</v>
-      </c>
-      <c r="S9" t="n">
-        <v>9801</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>3016</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>230</v>
+      </c>
       <c r="U9" t="n">
-        <v>52690</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2768</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
+        <v>2043</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>124</v>
+      </c>
       <c r="X9" t="n">
-        <v>9625</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1914</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+        <v>533</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>423</v>
+      </c>
       <c r="AC9" t="n">
-        <v>17803</v>
+        <v>38150</v>
       </c>
       <c r="AD9" t="n">
-        <v>12564</v>
+        <v>9470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MOLLOY_COLLEGE</t>
+          <t>BENTLEY_UNIVERSITY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1114,51 +1132,67 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>4526</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>807</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>4970</v>
+        <v>5333</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2907</v>
+        <v>4495</v>
       </c>
       <c r="O10" t="n">
-        <v>839</v>
+        <v>583</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>3746</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+        <v>5078</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11012</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1156</v>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>4961</v>
+      </c>
+      <c r="V10" t="n">
+        <v>651</v>
+      </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>210</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>37840</v>
+        <v>61000</v>
       </c>
       <c r="AD10" t="n">
-        <v>5478440</v>
+        <v>20140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MOUNT_ST_MARY_S_UNIVERSITY_INC</t>
+          <t>BRADLEY_UNIVERSITY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1167,80 +1201,60 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4230</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E11" t="n">
-        <v>188</v>
-      </c>
+        <v>3596</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>2408</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2134</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2408</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2408</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2134</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2408</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1830</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2408</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
+        <v>1181</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>2408</v>
+        <v>4235</v>
       </c>
       <c r="R11" t="n">
-        <v>6041</v>
+        <v>9459</v>
       </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>792</v>
+      </c>
       <c r="U11" t="n">
-        <v>4459</v>
+        <v>7260</v>
       </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>331</v>
+      </c>
       <c r="X11" t="n">
-        <v>545</v>
+        <v>811</v>
       </c>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>0.71</v>
-      </c>
+      <c r="Z11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>42322</v>
+        <v>41210</v>
       </c>
       <c r="AD11" t="n">
-        <v>20361</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NEW_YORK_UNIVERSITY</t>
+          <t>BRANDEIS_UNIVERSITY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1248,75 +1262,53 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>32986</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31924</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1062</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24418</v>
-      </c>
-      <c r="G12" t="n">
-        <v>18592</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5832</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3376</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3949</v>
-      </c>
-      <c r="K12" t="n">
-        <v>64636</v>
-      </c>
-      <c r="L12" t="n">
-        <v>53969</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10762</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>3620</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1296</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>57556</v>
+        <v>4916</v>
       </c>
       <c r="R12" t="n">
-        <v>117604</v>
+        <v>10459</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>13652</v>
+        <v>4228</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>6582</v>
+        <v>738</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>7004</v>
-      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>62796</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>23530</v>
-      </c>
+        <v>67082</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>OHIO_STATE_UNIVERSITY_THE</t>
+          <t>CALIFORNIA_BAPTIST_UNIVERSITY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1325,58 +1317,68 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52269</v>
+        <v>8179</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>11408</v>
+        <v>5373</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>3224</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>249</v>
+      </c>
       <c r="K13" t="n">
-        <v>66901</v>
+        <v>11931</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>8403</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5786</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>60820</v>
+        <v>12533</v>
       </c>
       <c r="R13" t="n">
-        <v>72791</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>8917</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3091</v>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>44078</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>7606</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1328</v>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>9530</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>2113</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>926</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>12728</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14738</v>
-      </c>
+        <v>19539</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>PRESIDENT___FELLOWS_OF_HARVARD_</t>
+          <t>CALVIN_UNIVERSITY_OBLIGATED_GRO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1385,66 +1387,62 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14163</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7100</v>
-      </c>
+        <v>3356</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>13900</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13900</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>24596</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21000</v>
-      </c>
+        <v>3681</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>6975</v>
+        <v>3191</v>
       </c>
       <c r="O14" t="n">
-        <v>13437</v>
+        <v>266</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>20412</v>
+        <v>3457</v>
       </c>
       <c r="R14" t="n">
-        <v>54008</v>
+        <v>5724</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>1970</v>
+        <v>4059</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>1647</v>
+        <v>870</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>87</v>
+      </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>414603</v>
+        <v>39350</v>
       </c>
       <c r="AD14" t="n">
-        <v>230792</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>STEVENSON_UNIVERSITY_INC</t>
+          <t>CAMPBELL_UNIVERSITY_INC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1453,62 +1451,60 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3117</v>
+        <v>2699</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>606</v>
+        <v>2264</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
       <c r="K15" t="n">
-        <v>3723</v>
+        <v>4963</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>2496</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2145</v>
+      </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>3100</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>5709</v>
+        <v>6956</v>
       </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>836</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>4505</v>
+        <v>6064</v>
       </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>375</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>767</v>
+        <v>616</v>
       </c>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>139</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>79</v>
-      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>37734</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
+        <v>38880</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15200</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>STEVENS_INSTITUTE_OF_TECHNOLOGY</t>
+          <t>CAPITAL_UNIVERSITY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1517,68 +1513,72 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4236</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>1609</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1569</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
       <c r="F16" t="n">
-        <v>4233</v>
+        <v>190</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>464</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>8469</v>
+        <v>2263</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>4191</v>
+        <v>1582</v>
       </c>
       <c r="O16" t="n">
-        <v>3259</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>7450</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P16" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>10673</v>
-      </c>
-      <c r="S16" t="n">
-        <v>10862</v>
-      </c>
+        <v>4520</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>5078</v>
-      </c>
-      <c r="V16" t="n">
-        <v>7109</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>1054</v>
+        <v>374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1472</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>57</v>
+      </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AC16" t="n">
-        <v>61028</v>
+        <v>41298</v>
       </c>
       <c r="AD16" t="n">
-        <v>19124</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ST_LOUIS_UNIVERSITY_US</t>
+          <t>CATHOLIC_UNIVERSITY_OF_AMERICA_</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1587,54 +1587,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8669</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+        <v>3177</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E17" t="n">
+        <v>208</v>
+      </c>
       <c r="F17" t="n">
-        <v>6665</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+        <v>1690</v>
+      </c>
+      <c r="G17" t="n">
+        <v>771</v>
+      </c>
+      <c r="H17" t="n">
+        <v>919</v>
+      </c>
+      <c r="I17" t="n">
+        <v>375</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>15334</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+        <v>5242</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4011</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1231</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>14417</v>
+        <v>5780</v>
       </c>
       <c r="R17" t="n">
-        <v>15533</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+        <v>6716</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5717</v>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>11656</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
+        <v>5560</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3067</v>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>1615</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+        <v>741</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>759</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>54760</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
+        <v>56930</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TEXAS_A_M_UNIVERSITY</t>
+          <t>CENTRAL_MICHIGAN_UNIVERSITY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1643,19 +1665,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7600</v>
+        <v>10060</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>31970</v>
+        <v>4351</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>165000</v>
+        <v>14411</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1664,39 +1686,37 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>140168</v>
+        <v>18102</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>29827</v>
+        <v>2165</v>
       </c>
       <c r="U18" t="n">
-        <v>101048</v>
+        <v>16468</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>17760</v>
+        <v>1922</v>
       </c>
       <c r="X18" t="n">
-        <v>26695</v>
+        <v>2042</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>12065</v>
+        <v>921</v>
       </c>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>26000</v>
-      </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>968015</v>
+        <v>14790</v>
       </c>
       <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>UNIVERSITY_OF_COLORADO</t>
+          <t>CHAPMAN_UNIVERSITY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1705,56 +1725,70 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>50981</v>
+        <v>8473</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>16727</v>
+        <v>2058</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>404</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>67708</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>45046</v>
+        <v>7458</v>
       </c>
       <c r="O19" t="n">
-        <v>8003</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+        <v>1498</v>
+      </c>
+      <c r="P19" t="n">
+        <v>399</v>
+      </c>
       <c r="Q19" t="n">
-        <v>53049</v>
+        <v>9355</v>
       </c>
       <c r="R19" t="n">
-        <v>111381</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
+        <v>17470</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3535</v>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>84127</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
+        <v>11126</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1428</v>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>16450</v>
-      </c>
-      <c r="Y19" t="inlineStr"/>
+        <v>1928</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>680</v>
+      </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>589</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>64984</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17814</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UNIVERSITY_OF_MINNESOTA</t>
+          <t>CHICAGO_SCHOOL_-_CALIFORNIA_INC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1762,50 +1796,1808 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>42424</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>11841</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>4109</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11716</v>
-      </c>
-      <c r="K20" t="n">
-        <v>70090</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>383</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4648</v>
+      </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>58444</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>5031</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>45601</v>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>9837</v>
-      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>578</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>516</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CLARKSON_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2296</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3348</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>2274</v>
+      </c>
+      <c r="O21" t="n">
+        <v>923</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>3197</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6983</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3615</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>5426</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2306</v>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>570</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>599</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>59398</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18252</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>COLLEGE_OF_NEW_JERSEY_THE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7435</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>706</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>8141</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>7339</v>
+      </c>
+      <c r="O22" t="n">
+        <v>493</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>7832</v>
+      </c>
+      <c r="R22" t="n">
+        <v>12766</v>
+      </c>
+      <c r="S22" t="n">
+        <v>780</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1060</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7792</v>
+      </c>
+      <c r="V22" t="n">
+        <v>678</v>
+      </c>
+      <c r="W22" t="n">
+        <v>718</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1563</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>497</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>333</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>512</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19640</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>COLLEGE_OF_ST_BENEDICT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>1376</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>1376</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>395</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>54544</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>12557</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>COLLEGE_OF_ST_SCHOLASTICA_INC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>39530</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11380</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CONCORDIA_COLLEGE_MN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1868</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1770</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1770</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4476</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>2825</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>438</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
+        <v>610</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>CORP_OF_MERCER_UNIVERSITY_THE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4605</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>8856</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>CREIGHTON_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4262</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>8580</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>4335</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>8175</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7248</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>6306</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="n">
+        <v>2643</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>46800</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>CULINARY_INSTITUTE_OF_AMERICA_T</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3257</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>3257</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>162</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>36900</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DELAWARE_VALLEY_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>431</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2199</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>2640</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>2185</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>430</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>44850</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>15076</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DUQUESNE_UNIVERSITY_OF_THE_HOLY</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5414</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>2266</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>602</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>8282</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>5320</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2121</v>
+      </c>
+      <c r="P30" t="n">
+        <v>599</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>8040</v>
+      </c>
+      <c r="R30" t="n">
+        <v>14009</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5804</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1116</v>
+      </c>
+      <c r="U30" t="n">
+        <v>11576</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2112</v>
+      </c>
+      <c r="W30" t="n">
+        <v>803</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1662</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>849</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>221</v>
+      </c>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="n">
+        <v>1524</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>48986</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>16374</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>D_YOUVILLE_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>33600</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ELIZABETHTOWN_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>380</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2283</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>1822</v>
+      </c>
+      <c r="O32" t="n">
+        <v>236</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>2058</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>37250</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>EMERSON_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3998</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1357</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>5355</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>3879</v>
+      </c>
+      <c r="O33" t="n">
+        <v>695</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>4574</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10378</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2533</v>
+      </c>
+      <c r="T33" t="n">
+        <v>882</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5325</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1358</v>
+      </c>
+      <c r="W33" t="n">
+        <v>416</v>
+      </c>
+      <c r="X33" t="n">
+        <v>828</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>498</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>131</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>57056</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>20920</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>FAIRFIELD_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5391</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1473</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>5348</v>
+      </c>
+      <c r="O34" t="n">
+        <v>992</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>18509</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>518</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6162</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>50</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1461</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="n">
+        <v>58350</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18980</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>FISHER_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>617</v>
+      </c>
+      <c r="D35" t="n">
+        <v>614</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>991</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>617</v>
+      </c>
+      <c r="L35" t="n">
+        <v>614</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>615</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>4063</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>2823</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>243</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="n">
+        <v>35689</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>18041</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>FLORIDA_INSTITUTE_OF_TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3852</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3594</v>
+      </c>
+      <c r="E36" t="n">
+        <v>558</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5711</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9863</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>7408</v>
+      </c>
+      <c r="R36" t="n">
+        <v>17295</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>9980</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>940</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>45900</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>FORDHAM_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10582</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10141</v>
+      </c>
+      <c r="E37" t="n">
+        <v>441</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5568</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3639</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1929</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>16150</v>
+      </c>
+      <c r="L37" t="n">
+        <v>13780</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2370</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10359</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4613</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>43364</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>25719</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>2492</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>722</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>60335</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>FRANKLIN_W_OLIN_COLLEGE_OF_ENGI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>378</v>
+      </c>
+      <c r="D38" t="n">
+        <v>378</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>378</v>
+      </c>
+      <c r="L38" t="n">
+        <v>378</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>258</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>61772</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>21080</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GANNON_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2768</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1421</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4189</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>3615</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6607</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5314</v>
+      </c>
+      <c r="T39" t="n">
+        <v>430</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4915</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2750</v>
+      </c>
+      <c r="W39" t="n">
+        <v>230</v>
+      </c>
+      <c r="X39" t="n">
+        <v>554</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>345</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>35590</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>16776</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GEORGE_FOX_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2758</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>377</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4323</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>2590</v>
+      </c>
+      <c r="O40" t="n">
+        <v>888</v>
+      </c>
+      <c r="P40" t="n">
+        <v>760</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4238</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4207</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2364</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>3934</v>
+      </c>
+      <c r="V40" t="n">
+        <v>670</v>
+      </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>710</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>487</v>
+      </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="n">
+        <v>42030</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>14060</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GRAND_VALLEY_STATE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>19002</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2708</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>301</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>22011</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>20174</v>
+      </c>
+      <c r="R41" t="n">
+        <v>30310</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>4265</v>
+      </c>
+      <c r="U41" t="n">
+        <v>24984</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>2373</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4278</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>1232</v>
+      </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="n">
+        <v>15140</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GROSSMONT_-_PALOMAR_-_SHASTA_-_</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>14077</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GWYNEDD_MERCY_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E43" t="n">
+        <v>312</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>21</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1684</v>
+      </c>
+      <c r="M43" t="n">
+        <v>333</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>1815</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1434</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>403</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1250</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>267</v>
+      </c>
+      <c r="X43" t="n">
+        <v>219</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>121</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>39528</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>14062</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>HOFSTRA_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>6107</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6434</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10452</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>10685</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>25021</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>17035</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="n">
+        <v>1754</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="n">
+        <v>1214</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>57660</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>12342</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>HOUSTON_BAPTIST_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2191</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2191</v>
+      </c>
+      <c r="E45" t="n">
+        <v>596</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1402</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4189</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>3322</v>
+      </c>
+      <c r="R45" t="n">
+        <v>9021</v>
+      </c>
+      <c r="S45" t="n">
+        <v>919</v>
+      </c>
+      <c r="T45" t="n">
+        <v>994</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7681</v>
+      </c>
+      <c r="V45" t="n">
+        <v>571</v>
+      </c>
+      <c r="W45" t="n">
+        <v>748</v>
+      </c>
+      <c r="X45" t="n">
+        <v>760</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>437</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>397</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>ITHACA_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4268</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4207</v>
+      </c>
+      <c r="E46" t="n">
+        <v>61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>499</v>
+      </c>
+      <c r="G46" t="n">
+        <v>395</v>
+      </c>
+      <c r="H46" t="n">
+        <v>104</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>29</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4767</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4602</v>
+      </c>
+      <c r="M46" t="n">
+        <v>165</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4237</v>
+      </c>
+      <c r="O46" t="n">
+        <v>451</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>4688</v>
+      </c>
+      <c r="R46" t="n">
+        <v>12400</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>498</v>
+      </c>
+      <c r="U46" t="n">
+        <v>8557</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>262</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>388</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>52616</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>16192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>JACKSONVILLE_STATE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8663</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9955</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7056</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2899</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>11199</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>8701</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>1737</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="n">
+        <v>8352</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>JUNIATA_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1321</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>81</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>1271</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>2779</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>2188</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
+        <v>367</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="n">
+        <v>57500</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>16600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output_scrapping/all_schools_combined.xlsx
+++ b/output_scrapping/all_schools_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AD131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +714,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>1014</v>
+        <v>332</v>
       </c>
       <c r="AC3" t="n">
         <v>49110</v>
@@ -732,7 +732,9 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>856</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -745,7 +747,9 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>850</v>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
@@ -861,9 +865,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>37</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>1179</v>
       </c>
@@ -976,7 +978,7 @@
         <v>81</v>
       </c>
       <c r="AB7" t="n">
-        <v>474</v>
+        <v>793</v>
       </c>
       <c r="AC7" t="n">
         <v>47590</v>
@@ -997,12 +999,16 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>2472</v>
+      </c>
+      <c r="D8" t="n">
         <v>2428</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>44</v>
+      </c>
       <c r="F8" t="n">
-        <v>813</v>
+        <v>603</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -1112,7 +1118,7 @@
         <v>85.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="AC9" t="n">
         <v>38150</v>
@@ -1322,7 +1328,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5373</v>
+        <v>2905</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1339,7 +1345,7 @@
         <v>8403</v>
       </c>
       <c r="O13" t="n">
-        <v>5786</v>
+        <v>3318</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
@@ -1369,11 +1375,15 @@
       <c r="AA13" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="AB13" t="inlineStr"/>
+      <c r="AB13" t="n">
+        <v>371</v>
+      </c>
       <c r="AC13" t="n">
         <v>19539</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1724,19 +1734,13 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>8473</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>2058</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>404</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1775,9 +1779,7 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>589</v>
-      </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
         <v>64984</v>
       </c>
@@ -1908,7 +1910,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>COLLEGE_OF_NEW_JERSEY_THE</t>
+          <t>CLEVELAND_INSTITUTE_OF_MUSIC_TH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1917,76 +1919,64 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7435</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="D22" t="n">
+        <v>163</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
       <c r="F22" t="n">
-        <v>706</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>137</v>
+      </c>
+      <c r="G22" t="n">
+        <v>137</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
       <c r="K22" t="n">
-        <v>8141</v>
+        <v>300</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>7339</v>
-      </c>
-      <c r="O22" t="n">
-        <v>493</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>7832</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>12766</v>
-      </c>
-      <c r="S22" t="n">
-        <v>780</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1060</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>7792</v>
-      </c>
-      <c r="V22" t="n">
-        <v>678</v>
-      </c>
-      <c r="W22" t="n">
-        <v>718</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>1563</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>497</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>333</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>91</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
-        <v>512</v>
+        <v>52</v>
       </c>
       <c r="AC22" t="n">
-        <v>19640</v>
+        <v>50000</v>
       </c>
       <c r="AD22" t="n">
-        <v>14976</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>COLLEGE_OF_ST_BENEDICT</t>
+          <t>COLLEGE_OF_NEW_JERSEY_THE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1994,49 +1984,77 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>7435</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>706</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>8141</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1376</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
+        <v>7339</v>
+      </c>
+      <c r="O23" t="n">
+        <v>493</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>1376</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+        <v>7832</v>
+      </c>
+      <c r="R23" t="n">
+        <v>12766</v>
+      </c>
+      <c r="S23" t="n">
+        <v>780</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1060</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7792</v>
+      </c>
+      <c r="V23" t="n">
+        <v>678</v>
+      </c>
+      <c r="W23" t="n">
+        <v>718</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1563</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>497</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>333</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>91</v>
+      </c>
       <c r="AB23" t="n">
-        <v>395</v>
+        <v>512</v>
       </c>
       <c r="AC23" t="n">
-        <v>54544</v>
+        <v>83592</v>
       </c>
       <c r="AD23" t="n">
-        <v>12557</v>
+        <v>66524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>COLLEGE_OF_ST_SCHOLASTICA_INC</t>
+          <t>COLLEGE_OF_ST_BENEDICT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2055,10 +2073,14 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>1376</v>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1376</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2069,18 +2091,20 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
+      <c r="AB24" t="n">
+        <v>395</v>
+      </c>
       <c r="AC24" t="n">
-        <v>39530</v>
+        <v>54544</v>
       </c>
       <c r="AD24" t="n">
-        <v>11380</v>
+        <v>12557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CONCORDIA_COLLEGE_MN</t>
+          <t>COLLEGE_OF_ST_SCHOLASTICA_INC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2088,9 +2112,7 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1868</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -2098,49 +2120,35 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1868</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
-        <v>1770</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>1770</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4476</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>2825</v>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="n">
-        <v>438</v>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="n">
-        <v>610</v>
-      </c>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>29400</v>
+        <v>39530</v>
       </c>
       <c r="AD25" t="n">
-        <v>10580</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CORP_OF_MERCER_UNIVERSITY_THE</t>
+          <t>CONCORDIA_COLLEGE_MN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2149,7 +2157,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4605</v>
+        <v>1868</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -2159,32 +2167,48 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>8856</v>
+        <v>1868</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1770</v>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>1770</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4476</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>2825</v>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>438</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AB26" t="n">
+        <v>610</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>10580</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CREIGHTON_UNIVERSITY</t>
+          <t>CONNECTICUT_COLLEGE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2193,58 +2217,70 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4262</v>
+        <v>1990</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>8580</v>
+        <v>1990</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>4335</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+        <v>1954</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
       <c r="Q27" t="n">
-        <v>8175</v>
+        <v>1954</v>
       </c>
       <c r="R27" t="n">
-        <v>7248</v>
+        <v>7950</v>
       </c>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>225</v>
+      </c>
       <c r="U27" t="n">
-        <v>6306</v>
+        <v>2945</v>
       </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>63</v>
+      </c>
       <c r="X27" t="n">
-        <v>1126</v>
+        <v>451</v>
       </c>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>2643</v>
-      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
-        <v>46800</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>12440</v>
-      </c>
+        <v>85800</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CULINARY_INSTITUTE_OF_AMERICA_T</t>
+          <t>CORP_OF_MERCER_UNIVERSITY_THE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2253,17 +2289,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3257</v>
+        <v>4605</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>4349</v>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>3257</v>
+        <v>8856</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2280,23 +2318,15 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>162</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>36900</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13800</v>
-      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DELAWARE_VALLEY_UNIVERSITY</t>
+          <t>CREIGHTON_UNIVERSITY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2305,54 +2335,58 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1768</v>
+        <v>4262</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>431</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>2199</v>
+        <v>8580</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>4335</v>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>8175</v>
+      </c>
       <c r="R29" t="n">
-        <v>2640</v>
+        <v>7248</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>2185</v>
+        <v>6306</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>430</v>
+        <v>1126</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AB29" t="n">
+        <v>2643</v>
+      </c>
       <c r="AC29" t="n">
-        <v>44850</v>
+        <v>46800</v>
       </c>
       <c r="AD29" t="n">
-        <v>15076</v>
+        <v>12440</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DUQUESNE_UNIVERSITY_OF_THE_HOLY</t>
+          <t>CULINARY_INSTITUTE_OF_AMERICA_T</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2361,78 +2395,56 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5414</v>
+        <v>3257</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>2266</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>602</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>8282</v>
+        <v>3257</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>5320</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2121</v>
-      </c>
-      <c r="P30" t="n">
-        <v>599</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>8040</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>14009</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5804</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1116</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>11576</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2112</v>
-      </c>
-      <c r="W30" t="n">
-        <v>803</v>
-      </c>
+        <v>3826</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>1662</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>849</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>221</v>
-      </c>
-      <c r="AA30" t="inlineStr"/>
+        <v>1461</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>75</v>
+      </c>
       <c r="AB30" t="n">
-        <v>1524</v>
+        <v>162</v>
       </c>
       <c r="AC30" t="n">
-        <v>48986</v>
+        <v>36900</v>
       </c>
       <c r="AD30" t="n">
-        <v>16374</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>D_YOUVILLE_COLLEGE</t>
+          <t>DELAWARE_VALLEY_UNIVERSITY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2440,43 +2452,55 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1768</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>431</v>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2199</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>2640</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>2185</v>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>430</v>
+      </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="n">
-        <v>33600</v>
+        <v>44850</v>
       </c>
       <c r="AD31" t="n">
-        <v>13200</v>
+        <v>15076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ELIZABETHTOWN_COLLEGE</t>
+          <t>DUQUESNE_UNIVERSITY_OF_THE_HOLY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2485,54 +2509,78 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1903</v>
+        <v>5414</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>380</v>
+        <v>2266</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>602</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>2283</v>
+        <v>8282</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>1822</v>
+        <v>5320</v>
       </c>
       <c r="O32" t="n">
-        <v>236</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
+        <v>2121</v>
+      </c>
+      <c r="P32" t="n">
+        <v>599</v>
+      </c>
       <c r="Q32" t="n">
-        <v>2058</v>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+        <v>8040</v>
+      </c>
+      <c r="R32" t="n">
+        <v>14009</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5804</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1116</v>
+      </c>
+      <c r="U32" t="n">
+        <v>11576</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2112</v>
+      </c>
+      <c r="W32" t="n">
+        <v>803</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1662</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>849</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>221</v>
+      </c>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AB32" t="n">
+        <v>1524</v>
+      </c>
       <c r="AC32" t="n">
-        <v>37250</v>
+        <v>48986</v>
       </c>
       <c r="AD32" t="n">
-        <v>13340</v>
+        <v>16374</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>EMERSON_COLLEGE</t>
+          <t>D_YOUVILLE_COLLEGE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2540,73 +2588,43 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>3998</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>1357</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5355</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>3879</v>
-      </c>
-      <c r="O33" t="n">
-        <v>695</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>4574</v>
-      </c>
-      <c r="R33" t="n">
-        <v>10378</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2533</v>
-      </c>
-      <c r="T33" t="n">
-        <v>882</v>
-      </c>
-      <c r="U33" t="n">
-        <v>5325</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1358</v>
-      </c>
-      <c r="W33" t="n">
-        <v>416</v>
-      </c>
-      <c r="X33" t="n">
-        <v>828</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>498</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>131</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="n">
-        <v>57056</v>
+        <v>33600</v>
       </c>
       <c r="AD33" t="n">
-        <v>20920</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FAIRFIELD_UNIVERSITY</t>
+          <t>ELIZABETHTOWN_COLLEGE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2615,64 +2633,54 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5391</v>
+        <v>1903</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>1473</v>
+        <v>380</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2283</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>5348</v>
+        <v>1822</v>
       </c>
       <c r="O34" t="n">
-        <v>992</v>
+        <v>236</v>
       </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="n">
-        <v>18509</v>
-      </c>
+      <c r="Q34" t="n">
+        <v>2058</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>518</v>
-      </c>
-      <c r="U34" t="n">
-        <v>6162</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>50</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1461</v>
-      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>91</v>
-      </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="n">
-        <v>58350</v>
+        <v>37250</v>
       </c>
       <c r="AD34" t="n">
-        <v>18980</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FISHER_COLLEGE</t>
+          <t>EMERSON_COLLEGE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2681,66 +2689,72 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>617</v>
-      </c>
-      <c r="D35" t="n">
-        <v>614</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
+        <v>3998</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>991</v>
+        <v>1357</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>617</v>
-      </c>
-      <c r="L35" t="n">
-        <v>614</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3</v>
-      </c>
+        <v>5355</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>615</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
+        <v>3879</v>
+      </c>
+      <c r="O35" t="n">
+        <v>695</v>
+      </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>4574</v>
+      </c>
       <c r="R35" t="n">
-        <v>4063</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+        <v>10378</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2533</v>
+      </c>
+      <c r="T35" t="n">
+        <v>882</v>
+      </c>
       <c r="U35" t="n">
-        <v>2823</v>
-      </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+        <v>5325</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1358</v>
+      </c>
+      <c r="W35" t="n">
+        <v>416</v>
+      </c>
       <c r="X35" t="n">
-        <v>243</v>
-      </c>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="n">
-        <v>55</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>498</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>131</v>
+      </c>
+      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="n">
-        <v>35689</v>
+        <v>57056</v>
       </c>
       <c r="AD35" t="n">
-        <v>18041</v>
+        <v>20920</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>FLORIDA_INSTITUTE_OF_TECHNOLOGY</t>
+          <t>FAIRFIELD_UNIVERSITY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2749,62 +2763,64 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3852</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3594</v>
-      </c>
-      <c r="E36" t="n">
-        <v>558</v>
-      </c>
+        <v>5391</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>5711</v>
+        <v>1473</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9863</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>5348</v>
+      </c>
+      <c r="O36" t="n">
+        <v>992</v>
+      </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>7408</v>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>17295</v>
+        <v>18509</v>
       </c>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>518</v>
+      </c>
       <c r="U36" t="n">
-        <v>9980</v>
+        <v>6162</v>
       </c>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>50</v>
+      </c>
       <c r="X36" t="n">
-        <v>940</v>
+        <v>1461</v>
       </c>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>41</v>
+      </c>
       <c r="AA36" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="n">
-        <v>45900</v>
+        <v>58350</v>
       </c>
       <c r="AD36" t="n">
-        <v>43040</v>
+        <v>18980</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>FORDHAM_UNIVERSITY</t>
+          <t>FISHER_COLLEGE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2813,70 +2829,66 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10582</v>
+        <v>617</v>
       </c>
       <c r="D37" t="n">
-        <v>10141</v>
+        <v>614</v>
       </c>
       <c r="E37" t="n">
-        <v>441</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>5568</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3639</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1929</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>16150</v>
+        <v>617</v>
       </c>
       <c r="L37" t="n">
-        <v>13780</v>
+        <v>614</v>
       </c>
       <c r="M37" t="n">
-        <v>2370</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>10359</v>
-      </c>
-      <c r="O37" t="n">
-        <v>4613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>43364</v>
+        <v>4063</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>25719</v>
+        <v>2823</v>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
-        <v>2492</v>
+        <v>243</v>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="n">
-        <v>722</v>
-      </c>
+      <c r="AA37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="n">
-        <v>60335</v>
-      </c>
-      <c r="AD37" t="inlineStr"/>
+        <v>35689</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>18041</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>FRANKLIN_W_OLIN_COLLEGE_OF_ENGI</t>
+          <t>FLORIDA_INSTITUTE_OF_TECHNOLOGY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2885,56 +2897,62 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>378</v>
+        <v>3852</v>
       </c>
       <c r="D38" t="n">
-        <v>378</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>3594</v>
+      </c>
+      <c r="E38" t="n">
+        <v>558</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5711</v>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>378</v>
-      </c>
-      <c r="L38" t="n">
-        <v>378</v>
-      </c>
+        <v>9863</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>7408</v>
+      </c>
       <c r="R38" t="n">
-        <v>1000</v>
+        <v>17295</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>258</v>
+        <v>9980</v>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
-        <v>110</v>
+        <v>940</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="AA38" t="n">
+        <v>80</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="n">
-        <v>61772</v>
+        <v>45900</v>
       </c>
       <c r="AD38" t="n">
-        <v>21080</v>
+        <v>43040</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GANNON_UNIVERSITY</t>
+          <t>FORDHAM_UNIVERSITY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2943,68 +2961,70 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2768</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+        <v>10582</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10141</v>
+      </c>
+      <c r="E39" t="n">
+        <v>441</v>
+      </c>
       <c r="F39" t="n">
-        <v>1421</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+        <v>5568</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3639</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1929</v>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>4189</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+        <v>16150</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13780</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2370</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10359</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4613</v>
+      </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>3615</v>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>6607</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5314</v>
-      </c>
-      <c r="T39" t="n">
-        <v>430</v>
-      </c>
+        <v>43364</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>4915</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2750</v>
-      </c>
-      <c r="W39" t="n">
-        <v>230</v>
-      </c>
+        <v>25719</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
-        <v>554</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>345</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>103</v>
-      </c>
+        <v>2492</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>722</v>
+      </c>
       <c r="AC39" t="n">
-        <v>35590</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>16776</v>
-      </c>
+        <v>60335</v>
+      </c>
+      <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GEORGE_FOX_UNIVERSITY</t>
+          <t>FRANKLIN_W_OLIN_COLLEGE_OF_ENGI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3013,72 +3033,56 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2758</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>378</v>
+      </c>
+      <c r="D40" t="n">
+        <v>378</v>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>1188</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>377</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>4323</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>378</v>
+      </c>
+      <c r="L40" t="n">
+        <v>378</v>
+      </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>2590</v>
-      </c>
-      <c r="O40" t="n">
-        <v>888</v>
-      </c>
-      <c r="P40" t="n">
-        <v>760</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4238</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>4207</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2364</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3934</v>
-      </c>
-      <c r="V40" t="n">
-        <v>670</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
-        <v>710</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>487</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="n">
-        <v>83</v>
-      </c>
+      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="n">
-        <v>42030</v>
+        <v>61772</v>
       </c>
       <c r="AD40" t="n">
-        <v>14060</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>GRAND_VALLEY_STATE_UNIVERSITY</t>
+          <t>GANNON_UNIVERSITY</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3087,21 +3091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19002</v>
+        <v>2768</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>2708</v>
+        <v>1421</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>301</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>22011</v>
+        <v>4189</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -3109,42 +3111,48 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>20174</v>
+        <v>3615</v>
       </c>
       <c r="R41" t="n">
-        <v>30310</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
+        <v>6607</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5314</v>
+      </c>
       <c r="T41" t="n">
-        <v>4265</v>
+        <v>430</v>
       </c>
       <c r="U41" t="n">
-        <v>24984</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
+        <v>4915</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2750</v>
+      </c>
       <c r="W41" t="n">
-        <v>2373</v>
+        <v>230</v>
       </c>
       <c r="X41" t="n">
-        <v>4278</v>
-      </c>
-      <c r="Y41" t="inlineStr"/>
+        <v>554</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>345</v>
+      </c>
       <c r="Z41" t="n">
-        <v>1232</v>
+        <v>103</v>
       </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="n">
-        <v>15140</v>
+        <v>35590</v>
       </c>
       <c r="AD41" t="n">
-        <v>9950</v>
+        <v>16776</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GROSSMONT_-_PALOMAR_-_SHASTA_-_</t>
+          <t>GEORGE_FOX_UNIVERSITY</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3152,41 +3160,73 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>2758</v>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>1188</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>377</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4323</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>2590</v>
+      </c>
+      <c r="O42" t="n">
+        <v>888</v>
+      </c>
+      <c r="P42" t="n">
+        <v>760</v>
+      </c>
       <c r="Q42" t="n">
-        <v>14077</v>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+        <v>4238</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4207</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2364</v>
+      </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>3934</v>
+      </c>
+      <c r="V42" t="n">
+        <v>670</v>
+      </c>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>710</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>487</v>
+      </c>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="AA42" t="n">
+        <v>83</v>
+      </c>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+      <c r="AC42" t="n">
+        <v>42030</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14060</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GWYNEDD_MERCY_UNIVERSITY</t>
+          <t>GRAND_VALLEY_STATE_UNIVERSITY</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3195,74 +3235,64 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1684</v>
-      </c>
-      <c r="E43" t="n">
-        <v>312</v>
-      </c>
+        <v>19002</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>2708</v>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>21</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>301</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2017</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1684</v>
-      </c>
-      <c r="M43" t="n">
-        <v>333</v>
-      </c>
+        <v>22011</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>1815</v>
+        <v>20174</v>
       </c>
       <c r="R43" t="n">
-        <v>1434</v>
+        <v>30310</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>403</v>
+        <v>4265</v>
       </c>
       <c r="U43" t="n">
-        <v>1250</v>
+        <v>24984</v>
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>267</v>
+        <v>2373</v>
       </c>
       <c r="X43" t="n">
-        <v>219</v>
+        <v>4278</v>
       </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
-        <v>121</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>75</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="n">
-        <v>39528</v>
+        <v>15140</v>
       </c>
       <c r="AD43" t="n">
-        <v>14062</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>HOFSTRA_UNIVERSITY</t>
+          <t>GROSSMONT_-_PALOMAR_-_SHASTA_-_</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3271,60 +3301,40 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>6107</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6434</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10452</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10685</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="n">
-        <v>25021</v>
-      </c>
+      <c r="Q44" t="n">
+        <v>14077</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="n">
-        <v>17035</v>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
-        <v>1754</v>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="n">
-        <v>200</v>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>1214</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>57660</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>12342</v>
-      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>HOUSTON_BAPTIST_UNIVERSITY</t>
+          <t>GWYNEDD_MERCY_UNIVERSITY</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3333,70 +3343,68 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2191</v>
+        <v>1996</v>
       </c>
       <c r="D45" t="n">
-        <v>2191</v>
+        <v>1684</v>
       </c>
       <c r="E45" t="n">
-        <v>596</v>
+        <v>312</v>
       </c>
       <c r="F45" t="n">
-        <v>1402</v>
+        <v>21</v>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>21</v>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>4189</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>2017</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1684</v>
+      </c>
+      <c r="M45" t="n">
+        <v>333</v>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>3322</v>
+        <v>1815</v>
       </c>
       <c r="R45" t="n">
-        <v>9021</v>
-      </c>
-      <c r="S45" t="n">
-        <v>919</v>
-      </c>
+        <v>1837</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
-        <v>994</v>
+        <v>403</v>
       </c>
       <c r="U45" t="n">
-        <v>7681</v>
-      </c>
-      <c r="V45" t="n">
-        <v>571</v>
-      </c>
+        <v>1517</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>748</v>
+        <v>267</v>
       </c>
       <c r="X45" t="n">
-        <v>760</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>437</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="AA45" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>397</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="n">
-        <v>35500</v>
+        <v>39528</v>
       </c>
       <c r="AD45" t="n">
-        <v>9980</v>
+        <v>14062</v>
       </c>
     </row>
     <row r="46">
@@ -3474,7 +3482,7 @@
         <v>84.7</v>
       </c>
       <c r="AB46" t="n">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="AC46" t="n">
         <v>52616</v>
@@ -3591,12 +3599,5402 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="n">
+        <v>402</v>
+      </c>
       <c r="AC48" t="n">
         <v>57500</v>
       </c>
       <c r="AD48" t="n">
-        <v>16600</v>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>KANSAS_CITY_UNIVERSITY_OF_MEDIC</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>2109</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>KENYON_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1735</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1735</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>8024</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>2397</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="n">
+        <v>442</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>601</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>69330</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>14410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>KETTERING_UNIVERSITY_PROJECT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>254</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1466</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>1337</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2161</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>1700</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>263</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>KING_S_COLLEGE_PA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1372</v>
+      </c>
+      <c r="E52" t="n">
+        <v>98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>371</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1939</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>1529</v>
+      </c>
+      <c r="O52" t="n">
+        <v>301</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>1830</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3237</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>114</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3012</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>103</v>
+      </c>
+      <c r="X52" t="n">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>LASELL_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>417</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>67</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1710</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1394</v>
+      </c>
+      <c r="M53" t="n">
+        <v>249</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1230</v>
+      </c>
+      <c r="O53" t="n">
+        <v>327</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>1557</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3331</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>2639</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>403</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="n">
+        <v>27040</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>LAWRENCE_TECHNOLOGICAL_UNIVERSI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2579</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>1114</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3693</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>2292</v>
+      </c>
+      <c r="O54" t="n">
+        <v>669</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>3780</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3218</v>
+      </c>
+      <c r="T54" t="n">
+        <v>426</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3106</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1814</v>
+      </c>
+      <c r="W54" t="n">
+        <v>283</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1223</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>405</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="n">
+        <v>139</v>
+      </c>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>LESLEY_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1159</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1227</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>2386</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2838</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1211</v>
+      </c>
+      <c r="T55" t="n">
+        <v>298</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2444</v>
+      </c>
+      <c r="V55" t="n">
+        <v>958</v>
+      </c>
+      <c r="W55" t="n">
+        <v>186</v>
+      </c>
+      <c r="X55" t="n">
+        <v>196</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>535</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>97</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="n">
+        <v>31890</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>LEWIS_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5135</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>5433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2387</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>6177</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6713</v>
+      </c>
+      <c r="S56" t="n">
+        <v>6594</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2436</v>
+      </c>
+      <c r="U56" t="n">
+        <v>4631</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4934</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1434</v>
+      </c>
+      <c r="X56" t="n">
+        <v>796</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>688</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>788</v>
+      </c>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="n">
+        <v>38800</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>12383</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>LE_MOYNE_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E57" t="n">
+        <v>363</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>227</v>
+      </c>
+      <c r="H57" t="n">
+        <v>376</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>2871</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7535</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>649</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5673</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>408</v>
+      </c>
+      <c r="X57" t="n">
+        <v>607</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>187</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>181</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>39090</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>16210</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>LINDSEY_WILSON_COLLEGE_INC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>2365</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4147</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>3967</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2152</v>
+      </c>
+      <c r="S58" t="n">
+        <v>773</v>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="n">
+        <v>1525</v>
+      </c>
+      <c r="V58" t="n">
+        <v>616</v>
+      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="n">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="n">
+        <v>1146</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>LOMA_LINDA_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3960</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="n">
+        <v>736</v>
+      </c>
+      <c r="AD59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>LOYOLA_MARYMOUNT_UNIVERSITY_-_I</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>7179</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1633</v>
+      </c>
+      <c r="P60" t="n">
+        <v>998</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9810</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="n">
+        <v>60970</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>22026</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>LOYOLA_UNIVERSITY_MARYLAND_INC</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3847</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3847</v>
+      </c>
+      <c r="E61" t="n">
+        <v>34</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G61" t="n">
+        <v>355</v>
+      </c>
+      <c r="H61" t="n">
+        <v>661</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4897</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4202</v>
+      </c>
+      <c r="M61" t="n">
+        <v>695</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3858</v>
+      </c>
+      <c r="O61" t="n">
+        <v>575</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>4434</v>
+      </c>
+      <c r="R61" t="n">
+        <v>10797</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="n">
+        <v>8151</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>945</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="n">
+        <v>57150</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>LOYOLA_UNIVERSITY_NEW_ORLEANS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3032</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>628</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4322</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>3894</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5421</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>5015</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="n">
+        <v>579</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="n">
+        <v>47390</v>
+      </c>
+      <c r="AD62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>LSU_NICHOLSON_GATEWAY</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>34242</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>7463</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>41705</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>51413</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>37276</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="n">
+        <v>9016</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="n">
+        <v>11954</v>
+      </c>
+      <c r="AD63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>MANHATTAN_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2591</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>120</v>
+      </c>
+      <c r="F64" t="n">
+        <v>481</v>
+      </c>
+      <c r="G64" t="n">
+        <v>419</v>
+      </c>
+      <c r="H64" t="n">
+        <v>62</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>2746</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>2690</v>
+      </c>
+      <c r="O64" t="n">
+        <v>450</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>49676</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="n">
+        <v>7834</v>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="n">
+        <v>690</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="n">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="n">
+        <v>48400</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>MARYLAND_INSTITUTE_COLLEGE_OF_A</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1153</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>496</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1649</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>3204</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1031</v>
+      </c>
+      <c r="T65" t="n">
+        <v>288</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2459</v>
+      </c>
+      <c r="V65" t="n">
+        <v>521</v>
+      </c>
+      <c r="W65" t="n">
+        <v>249</v>
+      </c>
+      <c r="X65" t="n">
+        <v>254</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>229</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="n">
+        <v>54750</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>16170</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>MARYVILLE_UNIVERSITY_OF_ST_LOUI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5692</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>3569</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9261</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>4335</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1736</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>6071</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4412</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="n">
+        <v>4194</v>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="n">
+        <v>956</v>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="n">
+        <v>24766</v>
+      </c>
+      <c r="AD66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>MICHIGAN_FINANCE_AUTHORITY</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>419</v>
+      </c>
+      <c r="G67" t="n">
+        <v>162</v>
+      </c>
+      <c r="H67" t="n">
+        <v>257</v>
+      </c>
+      <c r="I67" t="n">
+        <v>419</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>419</v>
+      </c>
+      <c r="L67" t="n">
+        <v>162</v>
+      </c>
+      <c r="M67" t="n">
+        <v>257</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1162</v>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="n">
+        <v>553</v>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>139</v>
+      </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>48040</v>
+      </c>
+      <c r="AD67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>MICHIGAN_TECHNOLOGICAL_UNIVERSI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5903</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>1421</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>7324</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>6930</v>
+      </c>
+      <c r="R68" t="n">
+        <v>20565</v>
+      </c>
+      <c r="S68" t="n">
+        <v>31226</v>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="n">
+        <v>10935</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4370</v>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="n">
+        <v>1463</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>431</v>
+      </c>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="n">
+        <v>18392</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>12554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>MISERICORDIA_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1553</v>
+      </c>
+      <c r="E69" t="n">
+        <v>168</v>
+      </c>
+      <c r="F69" t="n">
+        <v>480</v>
+      </c>
+      <c r="G69" t="n">
+        <v>335</v>
+      </c>
+      <c r="H69" t="n">
+        <v>145</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2201</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1888</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1621</v>
+      </c>
+      <c r="O69" t="n">
+        <v>397</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2985</v>
+      </c>
+      <c r="S69" t="n">
+        <v>190</v>
+      </c>
+      <c r="T69" t="n">
+        <v>536</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2648</v>
+      </c>
+      <c r="V69" t="n">
+        <v>113</v>
+      </c>
+      <c r="W69" t="n">
+        <v>231</v>
+      </c>
+      <c r="X69" t="n">
+        <v>465</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>107</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>367</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>38400</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>13454</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>MOLLOY_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>2907</v>
+      </c>
+      <c r="O70" t="n">
+        <v>839</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>3746</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5789</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="n">
+        <v>4379</v>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="n">
+        <v>608</v>
+      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="n">
+        <v>190</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>37840</v>
+      </c>
+      <c r="AD70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>MORAVIAN_UNIVERSITY_OBLIGATED_G</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>999</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>2830</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1822</v>
+      </c>
+      <c r="O71" t="n">
+        <v>659</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>2481</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6312</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1053</v>
+      </c>
+      <c r="T71" t="n">
+        <v>642</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3354</v>
+      </c>
+      <c r="V71" t="n">
+        <v>707</v>
+      </c>
+      <c r="W71" t="n">
+        <v>173</v>
+      </c>
+      <c r="X71" t="n">
+        <v>536</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>373</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="n">
+        <v>50069</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>15351</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>MUHLENBERG_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1666</v>
+      </c>
+      <c r="E72" t="n">
+        <v>39</v>
+      </c>
+      <c r="F72" t="n">
+        <v>51</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>443</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1912</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1684</v>
+      </c>
+      <c r="O72" t="n">
+        <v>36</v>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4963</v>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="n">
+        <v>3573</v>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="n">
+        <v>466</v>
+      </c>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="n">
+        <v>62805</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>14548</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>NATIONAL_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>17295</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>28512</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>45807</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>23943</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AD73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>NEW_JERSEY_INSTITUTE_OF_TECHNOL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10200</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>3047</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>13247</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>9138</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2389</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>11527</v>
+      </c>
+      <c r="R74" t="n">
+        <v>16662</v>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="n">
+        <v>10902</v>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="n">
+        <v>1746</v>
+      </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>16334</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>NEW_SCHOOL_THE</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7224</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6938</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>2695</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2513</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1515</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9919</v>
+      </c>
+      <c r="L75" t="n">
+        <v>9451</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>9451</v>
+      </c>
+      <c r="R75" t="n">
+        <v>10137</v>
+      </c>
+      <c r="S75" t="n">
+        <v>6161</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1559</v>
+      </c>
+      <c r="U75" t="n">
+        <v>6429</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3466</v>
+      </c>
+      <c r="W75" t="n">
+        <v>965</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1391</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1153</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>368</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>417</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>59460</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>25337</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>NEW_YORK_INSTITUTE_OF_TECHNOLOG</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3483</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3279</v>
+      </c>
+      <c r="E76" t="n">
+        <v>163</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2252</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1550</v>
+      </c>
+      <c r="H76" t="n">
+        <v>698</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1757</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7492</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6588</v>
+      </c>
+      <c r="M76" t="n">
+        <v>904</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3359</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1862</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1757</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>6978</v>
+      </c>
+      <c r="R76" t="n">
+        <v>14056</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7069</v>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="n">
+        <v>11162</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3734</v>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="n">
+        <v>1042</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>531</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="n">
+        <v>46560</v>
+      </c>
+      <c r="AD76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>NORTHEAST_OHIO_MEDICAL_UNIVERSI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>115</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>890</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1048</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>114</v>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="n">
+        <v>67</v>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>NORTHWEST_NAZARENE_UNIVERSITY_I</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E78" t="n">
+        <v>142</v>
+      </c>
+      <c r="F78" t="n">
+        <v>618</v>
+      </c>
+      <c r="G78" t="n">
+        <v>228</v>
+      </c>
+      <c r="H78" t="n">
+        <v>390</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1774</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1070</v>
+      </c>
+      <c r="O78" t="n">
+        <v>505</v>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>1575</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3571</v>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="n">
+        <v>2248</v>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="n">
+        <v>246</v>
+      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="n">
+        <v>39370</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>NORTH_CAROLINA_CENTRAL_UNIVERSI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>OAKLAND_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>12587</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>3181</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>15768</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>13412</v>
+      </c>
+      <c r="R80" t="n">
+        <v>17593</v>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="n">
+        <v>2979</v>
+      </c>
+      <c r="U80" t="n">
+        <v>15454</v>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="n">
+        <v>2612</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2268</v>
+      </c>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="n">
+        <v>1228</v>
+      </c>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="n">
+        <v>15225</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>PACE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>7421</v>
+      </c>
+      <c r="D81" t="n">
+        <v>617</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>2778</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1929</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>869</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>13634</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>12104</v>
+      </c>
+      <c r="R81" t="n">
+        <v>33685</v>
+      </c>
+      <c r="S81" t="n">
+        <v>13689</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>24834</v>
+      </c>
+      <c r="V81" t="n">
+        <v>8712</v>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="n">
+        <v>2320</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1588</v>
+      </c>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="n">
+        <v>25691</v>
+      </c>
+      <c r="AD81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>PALM_BEACH_ATLANTIC_UNIVERSITY_</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3312</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>835</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>4147</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2972</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1175</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2757</v>
+      </c>
+      <c r="O82" t="n">
+        <v>606</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>3363</v>
+      </c>
+      <c r="R82" t="n">
+        <v>8474</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>8474</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="n">
+        <v>841</v>
+      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="n">
+        <v>173</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="n">
+        <v>39400</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>QUINNIPIAC_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>6557</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6405</v>
+      </c>
+      <c r="E83" t="n">
+        <v>152</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2098</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1129</v>
+      </c>
+      <c r="H83" t="n">
+        <v>969</v>
+      </c>
+      <c r="I83" t="n">
+        <v>386</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9424</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>6481</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1774</v>
+      </c>
+      <c r="P83" t="n">
+        <v>747</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>9003</v>
+      </c>
+      <c r="R83" t="n">
+        <v>23950</v>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>857</v>
+      </c>
+      <c r="U83" t="n">
+        <v>17281</v>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="n">
+        <v>227</v>
+      </c>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="n">
+        <v>52670</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>17260</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>REGENT_UNIV_PROJECT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26139</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>26139</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>26139</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4614</v>
+      </c>
+      <c r="P84" t="n">
+        <v>489</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>26139</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="n">
+        <v>158</v>
+      </c>
+      <c r="AD84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RHODES_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1781</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>1781</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6365</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="n">
+        <v>389</v>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="n">
+        <v>56300</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>13368</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>ROANOKE_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>1742</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5760</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>4793</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>469</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="n">
+        <v>38068</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>15366</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>ROBERT_MORRIS_UNIVERSITY_PA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2903</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>956</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>2849</v>
+      </c>
+      <c r="O87" t="n">
+        <v>723</v>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>8361</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1894</v>
+      </c>
+      <c r="T87" t="n">
+        <v>686</v>
+      </c>
+      <c r="U87" t="n">
+        <v>6266</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1125</v>
+      </c>
+      <c r="W87" t="n">
+        <v>404</v>
+      </c>
+      <c r="X87" t="n">
+        <v>628</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>171</v>
+      </c>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="n">
+        <v>34360</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>ROCHESTER_INSTITUTE_OF_TECHNOLO</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>18140</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>3176</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>21316</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>15763</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2392</v>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>18155</v>
+      </c>
+      <c r="R88" t="n">
+        <v>31378</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>20051</v>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>4154</v>
+      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="n">
+        <v>1205</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>58324</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>16142</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>ROLLINS_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>2341</v>
+      </c>
+      <c r="O89" t="n">
+        <v>325</v>
+      </c>
+      <c r="P89" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2968</v>
+      </c>
+      <c r="R89" t="n">
+        <v>8866</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>4213</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="n">
+        <v>566</v>
+      </c>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="n">
+        <v>66606</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>16820</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>ROSALIND_FRANKLIN_UNIVERSITY_OF</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>2073</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>686</v>
+      </c>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>ROWAN_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>21270</v>
+      </c>
+      <c r="D91" t="n">
+        <v>13951</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>5981</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2180</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>12478</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2180</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>19593</v>
+      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="n">
+        <v>14969</v>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="n">
+        <v>3506</v>
+      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="n">
+        <v>604</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>11812</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>SACRED_HEART_UNIVERSITY_INC</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6961</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>4219</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11180</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>6676</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3066</v>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>9741</v>
+      </c>
+      <c r="R92" t="n">
+        <v>14284</v>
+      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>605</v>
+      </c>
+      <c r="U92" t="n">
+        <v>9667</v>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>421</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1906</v>
+      </c>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="n">
+        <v>146</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>359</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>48160</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>SAMFORD_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>742</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1066</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>6101</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>5986</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4559</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="n">
+        <v>428</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3755</v>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="n">
+        <v>346</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1087</v>
+      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="n">
+        <v>245</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="n">
+        <v>539000</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>13056</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>SETON_HALL_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>6146</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6003</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>3425</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9571</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>6051</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2430</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>8481</v>
+      </c>
+      <c r="R94" t="n">
+        <v>24776</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5901</v>
+      </c>
+      <c r="T94" t="n">
+        <v>586</v>
+      </c>
+      <c r="U94" t="n">
+        <v>18152</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3219</v>
+      </c>
+      <c r="W94" t="n">
+        <v>470</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1603</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1175</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>827</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>52520</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>17970</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>SETON_HILL_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1501</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>426</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1738</v>
+      </c>
+      <c r="M95" t="n">
+        <v>189</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>1932</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3135</v>
+      </c>
+      <c r="S95" t="n">
+        <v>292</v>
+      </c>
+      <c r="T95" t="n">
+        <v>203</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2480</v>
+      </c>
+      <c r="V95" t="n">
+        <v>198</v>
+      </c>
+      <c r="W95" t="n">
+        <v>130</v>
+      </c>
+      <c r="X95" t="n">
+        <v>330</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>129</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="n">
+        <v>42294</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>14222</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>SIMMONS_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1497</v>
+      </c>
+      <c r="E96" t="n">
+        <v>178</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2991</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2627</v>
+      </c>
+      <c r="H96" t="n">
+        <v>364</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>4740</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>2113</v>
+      </c>
+      <c r="O96" t="n">
+        <v>23647</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>4789</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="n">
+        <v>3351</v>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="n">
+        <v>361</v>
+      </c>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="n">
+        <v>45534</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>17618</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>SOUTHEAST_MISSOURI_STATE_UNIVER</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>7926</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1574</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>7303</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>12363</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="n">
+        <v>1562</v>
+      </c>
+      <c r="U97" t="n">
+        <v>8674</v>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="n">
+        <v>907</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1813</v>
+      </c>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="n">
+        <v>432</v>
+      </c>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="n">
+        <v>341</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>9495</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>SOUTHWESTERN_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>40</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1441</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>40</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1432</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>1432</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6313</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="n">
+        <v>343</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2718</v>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="n">
+        <v>113</v>
+      </c>
+      <c r="X98" t="n">
+        <v>375</v>
+      </c>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="n">
+        <v>53288</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>14364</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>STEVENS_INSTITUTE_OF_TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4236</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>4233</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>8469</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>4191</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3259</v>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>7450</v>
+      </c>
+      <c r="R99" t="n">
+        <v>10673</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10862</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="n">
+        <v>5078</v>
+      </c>
+      <c r="V99" t="n">
+        <v>7109</v>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="n">
+        <v>1054</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1472</v>
+      </c>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="n">
+        <v>335</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>61028</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>19124</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>ST_CATHERINE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2505</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3659</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>2213</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1052</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>3265</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2896</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="n">
+        <v>2142</v>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="n">
+        <v>477</v>
+      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="n">
+        <v>255</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>635</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>50560</v>
+      </c>
+      <c r="AD100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>ST_JOHN_S_UNIVERSITY_MN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>ST_JOSEPH_S_COLLEGE_BROOKLYN_NY</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3173</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E102" t="n">
+        <v>303</v>
+      </c>
+      <c r="F102" t="n">
+        <v>726</v>
+      </c>
+      <c r="G102" t="n">
+        <v>200</v>
+      </c>
+      <c r="H102" t="n">
+        <v>526</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3899</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3070</v>
+      </c>
+      <c r="M102" t="n">
+        <v>829</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3028</v>
+      </c>
+      <c r="O102" t="n">
+        <v>534</v>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="n">
+        <v>3562</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5728</v>
+      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="n">
+        <v>4127</v>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="n">
+        <v>520</v>
+      </c>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="n">
+        <v>252</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>35840</v>
+      </c>
+      <c r="AD102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>ST_LAWRENCE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2060</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>29</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2089</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>2042</v>
+      </c>
+      <c r="O103" t="n">
+        <v>23</v>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>2071</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="n">
+        <v>63450</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>16480</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>ST_LEO_UNIVERSITY_INC_OBLIGATED</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>5253</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>6753</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6682</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="n">
+        <v>5176</v>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>ST_MARY_S_COLLEGE_OF_CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>5124</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="n">
+        <v>4462</v>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="n">
+        <v>424</v>
+      </c>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="n">
+        <v>57303</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>SUFFOLK_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>4330</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4178</v>
+      </c>
+      <c r="E106" t="n">
+        <v>152</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1286</v>
+      </c>
+      <c r="H106" t="n">
+        <v>744</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1231</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>6360</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>4253</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1781</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1182</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>6034</v>
+      </c>
+      <c r="R106" t="n">
+        <v>10308</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2732</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1042</v>
+      </c>
+      <c r="U106" t="n">
+        <v>8487</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1747</v>
+      </c>
+      <c r="W106" t="n">
+        <v>751</v>
+      </c>
+      <c r="X106" t="n">
+        <v>995</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>309</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>207</v>
+      </c>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="n">
+        <v>1215</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>47550</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>21326</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>TEACHERS_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>5283</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3155</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2128</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>370</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5283</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3155</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="n">
+        <v>4157</v>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>4157</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>8275</v>
+      </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="n">
+        <v>3835</v>
+      </c>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="n">
+        <v>1959</v>
+      </c>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="n">
+        <v>360</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>35460</v>
+      </c>
+      <c r="AD107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>TRANSYLVANIA_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D108" t="n">
+        <v>994</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L108" t="n">
+        <v>994</v>
+      </c>
+      <c r="M108" t="n">
+        <v>13</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>1965</v>
+      </c>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="n">
+        <v>1632</v>
+      </c>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="n">
+        <v>262</v>
+      </c>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>46870</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>TRINITY_COLLEGE_INC_HARTFORD_CT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2181</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2181</v>
+      </c>
+      <c r="E109" t="n">
+        <v>56</v>
+      </c>
+      <c r="F109" t="n">
+        <v>39</v>
+      </c>
+      <c r="G109" t="n">
+        <v>30</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2220</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2211</v>
+      </c>
+      <c r="M109" t="n">
+        <v>65</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O109" t="n">
+        <v>19</v>
+      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>7460</v>
+      </c>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="n">
+        <v>2144</v>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="n">
+        <v>542</v>
+      </c>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="n">
+        <v>67650</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>18890</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>TRUSTEES_OF_UNION_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2082</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2066</v>
+      </c>
+      <c r="E110" t="n">
+        <v>16</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2082</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>2072</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>2072</v>
+      </c>
+      <c r="R110" t="n">
+        <v>9295</v>
+      </c>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="n">
+        <v>4070</v>
+      </c>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="n">
+        <v>550</v>
+      </c>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>220</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>66105</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>16389</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>TULANE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>8997</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8285</v>
+      </c>
+      <c r="E111" t="n">
+        <v>712</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4254</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>14664</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>32609</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2955</v>
+      </c>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="n">
+        <v>4559</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1242</v>
+      </c>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="n">
+        <v>1838</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>521</v>
+      </c>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="n">
+        <v>5525</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>67172</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>18192</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_DAYTON</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>274</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2858</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>528</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>11378</v>
+      </c>
+      <c r="R112" t="n">
+        <v>21981</v>
+      </c>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="n">
+        <v>14386</v>
+      </c>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="n">
+        <v>1698</v>
+      </c>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="n">
+        <v>49140</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_DETROIT_MERCY_OBL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3422</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F113" t="n">
+        <v>931</v>
+      </c>
+      <c r="G113" t="n">
+        <v>565</v>
+      </c>
+      <c r="H113" t="n">
+        <v>366</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1231</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>6238</v>
+      </c>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="n">
+        <v>4824</v>
+      </c>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="n">
+        <v>650</v>
+      </c>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="n">
+        <v>934</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>32946</v>
+      </c>
+      <c r="AD113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_EVANSVILLE</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>372</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2114</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1613</v>
+      </c>
+      <c r="O114" t="n">
+        <v>359</v>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5044</v>
+      </c>
+      <c r="S114" t="n">
+        <v>847</v>
+      </c>
+      <c r="T114" t="n">
+        <v>284</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3914</v>
+      </c>
+      <c r="V114" t="n">
+        <v>242</v>
+      </c>
+      <c r="W114" t="n">
+        <v>137</v>
+      </c>
+      <c r="X114" t="n">
+        <v>415</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>174</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>74</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="n">
+        <v>44172</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_HARTFORD_THE</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E115" t="n">
+        <v>160</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1793</v>
+      </c>
+      <c r="G115" t="n">
+        <v>822</v>
+      </c>
+      <c r="H115" t="n">
+        <v>371</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>4066</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1193</v>
+      </c>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="n">
+        <v>5259</v>
+      </c>
+      <c r="R115" t="n">
+        <v>14278</v>
+      </c>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="n">
+        <v>11773</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="n">
+        <v>1293</v>
+      </c>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>784</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>14532</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_HEALTH_SCIENCES__</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>343</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>9</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>297</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>649</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>341</v>
+      </c>
+      <c r="O116" t="n">
+        <v>9</v>
+      </c>
+      <c r="P116" t="n">
+        <v>288</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>639</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2871</v>
+      </c>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="n">
+        <v>1377</v>
+      </c>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="n">
+        <v>223</v>
+      </c>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="n">
+        <v>31950</v>
+      </c>
+      <c r="AD116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_ILLINOIS_HEALTH_S</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>61944</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>35828</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>97772</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>62088</v>
+      </c>
+      <c r="O117" t="n">
+        <v>34526</v>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>96614</v>
+      </c>
+      <c r="R117" t="n">
+        <v>103257</v>
+      </c>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="n">
+        <v>54285</v>
+      </c>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="n">
+        <v>13689</v>
+      </c>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="n">
+        <v>9405</v>
+      </c>
+      <c r="AD117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_LA_VERNE</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3084</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>1455</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>352</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1430</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>2771</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1081</v>
+      </c>
+      <c r="P118" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>5322</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2381</v>
+      </c>
+      <c r="T118" t="n">
+        <v>705</v>
+      </c>
+      <c r="U118" t="n">
+        <v>5084</v>
+      </c>
+      <c r="V118" t="n">
+        <v>935</v>
+      </c>
+      <c r="W118" t="n">
+        <v>681</v>
+      </c>
+      <c r="X118" t="n">
+        <v>497</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>385</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="n">
+        <v>48550</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>16132</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_MARY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="n">
+        <v>559</v>
+      </c>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="n">
+        <v>251</v>
+      </c>
+      <c r="W119" t="n">
+        <v>375</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="n">
+        <v>208</v>
+      </c>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="n">
+        <v>230</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>19940</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>11060</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_NEW_HAVEN_INC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>4563</v>
+      </c>
+      <c r="E120" t="n">
+        <v>340</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4326</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3270</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1056</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9229</v>
+      </c>
+      <c r="L120" t="n">
+        <v>7833</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1396</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4676</v>
+      </c>
+      <c r="O120" t="n">
+        <v>3622</v>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>21765</v>
+      </c>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="n">
+        <v>884</v>
+      </c>
+      <c r="U120" t="n">
+        <v>13142</v>
+      </c>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="n">
+        <v>1301</v>
+      </c>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="n">
+        <v>252</v>
+      </c>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="n">
+        <v>47332</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>18788</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_REDLANDS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="n">
+        <v>55264</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>16464</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_SCIENCES</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4968</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>76</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7159</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>4871</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1314</v>
+      </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>6222</v>
+      </c>
+      <c r="R122" t="n">
+        <v>11649</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1980</v>
+      </c>
+      <c r="T122" t="n">
+        <v>732</v>
+      </c>
+      <c r="U122" t="n">
+        <v>9443</v>
+      </c>
+      <c r="V122" t="n">
+        <v>918</v>
+      </c>
+      <c r="W122" t="n">
+        <v>298</v>
+      </c>
+      <c r="X122" t="n">
+        <v>1328</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>455</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>89</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>53060</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_ST_THOMAS_MINNEAP</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>6063</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9445</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>5988</v>
+      </c>
+      <c r="O123" t="n">
+        <v>2165</v>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>8396</v>
+      </c>
+      <c r="R123" t="n">
+        <v>9288</v>
+      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="n">
+        <v>7994</v>
+      </c>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="n">
+        <v>1591</v>
+      </c>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="n">
+        <v>218</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1787</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>52820</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>14971</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_THE_INCARNATE_WOR</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4638</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>2409</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>1359</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>7047</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>4323</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2217</v>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>6540</v>
+      </c>
+      <c r="R124" t="n">
+        <v>11186</v>
+      </c>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="n">
+        <v>10982</v>
+      </c>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="n">
+        <v>1016</v>
+      </c>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="n">
+        <v>35050</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>14296</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_THE_PACIFIC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>6944</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>3177</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1527</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1689</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>6393</v>
+      </c>
+      <c r="R125" t="n">
+        <v>7780</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2567</v>
+      </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="n">
+        <v>5549</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1228</v>
+      </c>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="n">
+        <v>766</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>555</v>
+      </c>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="n">
+        <v>56140</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>15060</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>WAGNER_COLLEGE</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1666</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>335</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1642</v>
+      </c>
+      <c r="O126" t="n">
+        <v>274</v>
+      </c>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>1916</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2566</v>
+      </c>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="n">
+        <v>2258</v>
+      </c>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="n">
+        <v>454</v>
+      </c>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="n">
+        <v>161</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>51200</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>15950</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>WENTWORTH_INSTITUTE_OF_TECHNOLO</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>6479</v>
+      </c>
+      <c r="S127" t="n">
+        <v>523</v>
+      </c>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="n">
+        <v>5655</v>
+      </c>
+      <c r="V127" t="n">
+        <v>331</v>
+      </c>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="n">
+        <v>1207</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>WIDENER_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>2846</v>
+      </c>
+      <c r="O128" t="n">
+        <v>993</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1128</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>4967</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="n">
+        <v>6632</v>
+      </c>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="n">
+        <v>916</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>566</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="n">
+        <v>535</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>55730</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>WILLAMETTE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2103</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>566</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>336</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>2669</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>2084</v>
+      </c>
+      <c r="O129" t="n">
+        <v>251</v>
+      </c>
+      <c r="P129" t="n">
+        <v>329</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>2623</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4577</v>
+      </c>
+      <c r="S129" t="n">
+        <v>382</v>
+      </c>
+      <c r="T129" t="n">
+        <v>90</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3490</v>
+      </c>
+      <c r="V129" t="n">
+        <v>187</v>
+      </c>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>105</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="n">
+        <v>48000</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>15380</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>XAVIER_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4241</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4081</v>
+      </c>
+      <c r="E130" t="n">
+        <v>160</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1263</v>
+      </c>
+      <c r="G130" t="n">
+        <v>531</v>
+      </c>
+      <c r="H130" t="n">
+        <v>732</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5504</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>4164</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1124</v>
+      </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>5288</v>
+      </c>
+      <c r="R130" t="n">
+        <v>14722</v>
+      </c>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="n">
+        <v>12644</v>
+      </c>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="n">
+        <v>925</v>
+      </c>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>969</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>50410</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>13920</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>YOUNGSTOWN_STATE_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>7780</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>1326</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12164</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>9106</v>
+      </c>
+      <c r="R131" t="n">
+        <v>9006</v>
+      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="n">
+        <v>7790</v>
+      </c>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="n">
+        <v>11044</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>10920</v>
       </c>
     </row>
   </sheetData>
